--- a/data/income_statement/3digits/total/563_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/563_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>563-Beverage serving activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>563-Beverage serving activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>1057781.27512</v>
@@ -959,34 +865,39 @@
         <v>1628434.43476</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>1946031.91219</v>
+        <v>1946949.69137</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>2167787.57683</v>
+        <v>2170338.009180001</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>2479171.19274</v>
+        <v>2506252.31004</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>2374607.87656</v>
+        <v>2909426.99516</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>3282949.06634</v>
+        <v>3288110.43818</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>4012076.332520001</v>
+        <v>4012076.33252</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>4502652.66237</v>
+        <v>4534723.77293</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>5739349.981229999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>5845188.273189999</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>4475191.241</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>1015341.94072</v>
@@ -998,34 +909,39 @@
         <v>1572658.93247</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>1876761.52911</v>
+        <v>1877524.18872</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>2084313.68515</v>
+        <v>2086239.13389</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>2396264.47953</v>
+        <v>2419839.02003</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>2265960.91756</v>
+        <v>2797582.18595</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>3156839.17231</v>
+        <v>3161996.79767</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>3861776.41383</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>4380768.5873</v>
+        <v>4412137.1674</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>5597156.44254</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>5692762.022039999</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>4336443.533</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>11406.40794</v>
@@ -1043,10 +959,10 @@
         <v>15763.76828</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>10812.582</v>
+        <v>13692.50191</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>16467.26245</v>
+        <v>17166.00699</v>
       </c>
       <c r="J7" s="48" t="n">
         <v>21819.5524</v>
@@ -1055,16 +971,21 @@
         <v>28191.89962</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>16902.74686</v>
+        <v>16933.54552</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>21035.65116</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>22498.32204</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>42093.298</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>31032.92646</v>
@@ -1076,34 +997,39 @@
         <v>42654.11782</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>58668.5756</v>
+        <v>58823.69517</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>67710.1234</v>
+        <v>68335.10701000001</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>72094.13120999999</v>
+        <v>72720.78810000001</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>92179.69654999999</v>
+        <v>94678.80222</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>104290.34163</v>
+        <v>104294.08811</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>122108.01907</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>104981.32821</v>
+        <v>105653.06001</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>121157.88753</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>129927.92911</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>96654.41</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>2739.44999</v>
@@ -1121,28 +1047,33 @@
         <v>7502.0755</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>10416.93837</v>
+        <v>10563.12575</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>9988.122580000001</v>
+        <v>14199.94701</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>15508.08542</v>
+        <v>15511.36542</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>28302.62401</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>32795.12185</v>
+        <v>32810.84661</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>56870.03096</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>56870.76766</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>61099.583</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>1080.42911</v>
@@ -1160,10 +1091,10 @@
         <v>3222.43786</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>3109.41526</v>
+        <v>3255.60264</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>5277.51967</v>
+        <v>5895.24211</v>
       </c>
       <c r="J10" s="48" t="n">
         <v>5651.445580000001</v>
@@ -1172,16 +1103,21 @@
         <v>9984.213659999999</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>7924.86801</v>
+        <v>7940.592769999999</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>11702.85612</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>11703.59282</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>15196.57</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>1647.57653</v>
@@ -1202,10 +1138,10 @@
         <v>6396.03767</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>3586.60683</v>
+        <v>7180.708820000001</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>8585.993470000001</v>
+        <v>8589.27347</v>
       </c>
       <c r="K11" s="48" t="n">
         <v>16821.60096</v>
@@ -1216,11 +1152,16 @@
       <c r="M11" s="48" t="n">
         <v>44828.3541</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>45408.789</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>11.44435</v>
@@ -1255,11 +1196,16 @@
       <c r="M12" s="48" t="n">
         <v>338.82074</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>494.224</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>1055041.82513</v>
@@ -1271,73 +1217,83 @@
         <v>1621373.31399</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>1939515.86091</v>
+        <v>1940433.64009</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>2160285.50133</v>
+        <v>2162835.93368</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>2468754.25437</v>
+        <v>2495689.18429</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>2364619.75398</v>
+        <v>2895227.04815</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>3267440.98092</v>
+        <v>3272599.07276</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>3983773.70851</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>4469857.540519999</v>
+        <v>4501912.92632</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>5682479.95027</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>5788317.505530001</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>4414091.658</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>720167.25703</v>
+        <v>720167.2570300001</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>874183.5840500001</v>
+        <v>874183.5840499999</v>
       </c>
       <c r="E14" s="47" t="n">
         <v>1127049.55073</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>1273323.96625</v>
+        <v>1273658.95019</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>1420005.51266</v>
+        <v>1421535.98487</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>1559152.32078</v>
+        <v>1570924.71004</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>1635025.52726</v>
+        <v>1808011.26617</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>2038231.18418</v>
+        <v>2043869.69302</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>2442991.72324</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>2684550.15415</v>
+        <v>2710329.74258</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>3325641.29683</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>3405311.46619</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>2693667.389</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>48525.50875</v>
@@ -1349,34 +1305,39 @@
         <v>74199.66809000001</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>95539.18498000002</v>
+        <v>95565.07782999999</v>
       </c>
       <c r="G15" s="48" t="n">
         <v>106103.19735</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>140121.56938</v>
+        <v>142844.37154</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>174410.31722</v>
+        <v>174511.26764</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>222295.5567</v>
+        <v>222293.93809</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>319857.0581500001</v>
+        <v>319857.05815</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>305223.52848</v>
+        <v>306150.95031</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>322794.0345299999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>331995.12706</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>244221.973</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>210461.88394</v>
@@ -1388,37 +1349,42 @@
         <v>377971.33016</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>382437.9685499999</v>
+        <v>382707.17937</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>409031.25287</v>
+        <v>409235.87015</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>484678.40618</v>
+        <v>490509.0283300001</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>437053.1040999999</v>
+        <v>567075.6015799999</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>701625.3836299998</v>
+        <v>701832.94768</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>916630.4998300002</v>
+        <v>916630.4998299999</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>1103854.49762</v>
+        <v>1117583.86708</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>1427758.16848</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1456289.46971</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>1361661.441</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>460217.7709</v>
+        <v>460217.7709000001</v>
       </c>
       <c r="D17" s="48" t="n">
         <v>540181.7316300001</v>
@@ -1427,37 +1393,42 @@
         <v>673682.12379</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>788473.78816</v>
+        <v>788513.66843</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>900807.9998</v>
+        <v>902133.85473</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>931464.09837</v>
+        <v>934683.06332</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>1015374.01369</v>
+        <v>1058236.3047</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>1108659.81306</v>
+        <v>1114092.37646</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>1201142.78436</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>1266240.06013</v>
+        <v>1277321.74616</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>1567174.09402</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1609111.86962</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>1075757.014</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>962.09344</v>
+        <v>962.0934400000001</v>
       </c>
       <c r="D18" s="48" t="n">
         <v>4607.470469999999</v>
@@ -1466,7 +1437,7 @@
         <v>1196.42869</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>6873.02456</v>
+        <v>6873.024560000001</v>
       </c>
       <c r="G18" s="48" t="n">
         <v>4063.06264</v>
@@ -1484,55 +1455,65 @@
         <v>5361.3809</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>9232.06792</v>
+        <v>9273.179029999999</v>
       </c>
       <c r="M18" s="48" t="n">
         <v>7914.999800000001</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="48" t="n">
+        <v>12026.961</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>334874.5681</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>409514.43672</v>
+        <v>409514.4367200001</v>
       </c>
       <c r="E19" s="47" t="n">
         <v>494323.76326</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>666191.89466</v>
+        <v>666774.6899</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>740279.98867</v>
+        <v>741299.94881</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>909601.93359</v>
+        <v>924764.47425</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>729594.22672</v>
+        <v>1087215.78198</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>1229209.79674</v>
+        <v>1228729.37974</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>1540781.98527</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>1785307.38637</v>
+        <v>1791583.18374</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>2356838.65344</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>2383006.03934</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>1720424.269</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>376495.84781</v>
@@ -1541,37 +1522,42 @@
         <v>439424.82694</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>530038.08705</v>
+        <v>530038.0870500001</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>684019.54639</v>
+        <v>684266.0807899999</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>799971.62653</v>
+        <v>800889.9445499999</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>974482.1550499999</v>
+        <v>992718.1546900001</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>852309.25696</v>
+        <v>1187260.72063</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>1383056.04084</v>
+        <v>1383715.69882</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>1621748.26885</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>1846276.38821</v>
+        <v>1855013.28575</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>2299011.25945</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>2328917.00956</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>1908533.107</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>1435.28834</v>
@@ -1604,13 +1590,18 @@
         <v>3819.08043</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>3159.78934</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>3160.20786</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>2898.392</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>120457.20287</v>
@@ -1622,34 +1613,39 @@
         <v>173434.38218</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>243317.2522</v>
+        <v>243317.97484</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>289480.24608</v>
+        <v>289506.52776</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>401265.52656</v>
+        <v>402482.0442</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>254098.32792</v>
+        <v>524962.1938</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>740655.2040700001</v>
+        <v>740724.81927</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>905070.57439</v>
+        <v>905070.5743900001</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>1068754.27158</v>
+        <v>1069077.7344</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>1381123.45724</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1385568.27667</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>1163028.564</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>254603.3566</v>
@@ -1658,37 +1654,42 @@
         <v>299334.98126</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>356047.74643</v>
+        <v>356047.7464299999</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>440249.9098</v>
+        <v>440495.72156</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>510217.23726</v>
+        <v>511109.2736</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>572891.85401</v>
+        <v>589911.33601</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>598037.2311</v>
+        <v>662124.82889</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>642086.99728</v>
+        <v>642677.04006</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>713980.86242</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>773703.0362000001</v>
+        <v>782116.47092</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>914728.01287</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>940188.52503</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>742606.151</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>-41621.27971</v>
@@ -1697,37 +1698,42 @@
         <v>-29910.39022</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>-35714.32379000001</v>
+        <v>-35714.32379</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>-17827.65173</v>
+        <v>-17491.39089</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>-59691.63786</v>
+        <v>-59589.99574</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>-64880.22146</v>
+        <v>-67953.68044</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>-122715.03024</v>
+        <v>-100044.93865</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>-153846.2441</v>
+        <v>-154986.31908</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>-80966.28358</v>
+        <v>-80966.28357999999</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>-60969.00184</v>
+        <v>-63430.10200999999</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>57827.39398999998</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>54089.02978000002</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>-188108.838</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>48283.50668999999</v>
@@ -1739,34 +1745,39 @@
         <v>212113.97023</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>259000.36857</v>
+        <v>259082.09592</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>308647.50195</v>
+        <v>308675.97457</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>323923.2128</v>
+        <v>330251.42998</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>93773.69061999999</v>
+        <v>394850.05456</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>454374.4782299999</v>
+        <v>454402.39864</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>595527.35781</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>196167.1909</v>
+        <v>198322.44721</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>164958.81619</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>166903.16144</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>178686.066</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>3.22383</v>
@@ -1787,7 +1798,7 @@
         <v>27427.03361</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>61.80128</v>
+        <v>33039.43097</v>
       </c>
       <c r="J26" s="48" t="n">
         <v>29499.72977</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>0.154</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1840,56 +1856,66 @@
       <c r="M27" s="48" t="n">
         <v>2611.14086</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>2756.243</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>7631.9166</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>7990.18987</v>
+        <v>7990.189870000001</v>
       </c>
       <c r="E28" s="48" t="n">
         <v>144666.95439</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>170198.35611</v>
+        <v>170252.21245</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>144158.68615</v>
+        <v>144185.89427</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>210341.66236</v>
+        <v>210655.32872</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>16916.11649</v>
+        <v>238028.53916</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>311883.25722</v>
+        <v>311889.16736</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>395262.8462</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>30484.18886</v>
+        <v>30857.27579</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>36564.65243</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>37034.22241</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>30778.476</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>739.95836</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>713.6935199999999</v>
+        <v>713.69352</v>
       </c>
       <c r="E29" s="48" t="n">
         <v>836.5941599999999</v>
@@ -1907,7 +1933,7 @@
         <v>485.32994</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>439.7946700000001</v>
+        <v>439.79467</v>
       </c>
       <c r="K29" s="48" t="n">
         <v>273.28314</v>
@@ -1916,16 +1942,21 @@
         <v>134.55984</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>214.54236</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>216.13302</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>224.256</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>4450.391840000001</v>
+        <v>4450.39184</v>
       </c>
       <c r="D30" s="48" t="n">
         <v>395.02598</v>
@@ -1943,7 +1974,7 @@
         <v>576.8400700000001</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>433.47645</v>
+        <v>455.2661800000001</v>
       </c>
       <c r="J30" s="48" t="n">
         <v>1162.40344</v>
@@ -1957,14 +1988,19 @@
       <c r="M30" s="48" t="n">
         <v>1574.87098</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>1356.193</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>357.5230099999999</v>
+        <v>357.52301</v>
       </c>
       <c r="D31" s="48" t="n">
         <v>135.48979</v>
@@ -1976,13 +2012,13 @@
         <v>477.2478</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>62305.26571999999</v>
+        <v>62306.53022</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>923.05664</v>
+        <v>923.0566399999999</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>1277.96942</v>
+        <v>1280.47655</v>
       </c>
       <c r="J31" s="48" t="n">
         <v>423.53824</v>
@@ -1996,32 +2032,37 @@
       <c r="M31" s="48" t="n">
         <v>3020.15895</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>2166.559</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>15112.93477</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>6863.851799999999</v>
+        <v>6863.8518</v>
       </c>
       <c r="E32" s="48" t="n">
         <v>8292.224920000001</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>17321.54105</v>
+        <v>17355.10744</v>
       </c>
       <c r="G32" s="48" t="n">
         <v>15189.33124</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>23454.18165</v>
+        <v>23494.71756</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>27152.54941</v>
+        <v>45689.05791</v>
       </c>
       <c r="J32" s="48" t="n">
         <v>42487.89159000001</v>
@@ -2030,16 +2071,21 @@
         <v>65748.04914999999</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>124664.28649</v>
+        <v>126402.42127</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>79929.07285</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>80570.83708</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>104344.52</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>34.2261</v>
@@ -2060,7 +2106,7 @@
         <v>72.80657999999998</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>0</v>
+        <v>122.65142</v>
       </c>
       <c r="J33" s="48" t="n">
         <v>13.06853</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>906.042</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>13.61399</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>9.818440000000001</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>14.986</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>19939.71819</v>
@@ -2129,34 +2185,39 @@
         <v>29905.20618</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>43598.11871</v>
+        <v>43592.42333</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>53524.94554000001</v>
+        <v>53524.94554</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>59995.86092</v>
+        <v>65969.87583</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>46564.81410999999</v>
+        <v>74867.66890999999</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>67496.01703</v>
+        <v>67518.0273</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>50161.04962000001</v>
+        <v>50161.04962</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>32823.50449</v>
+        <v>32867.53909000001</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>41034.55932</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>41865.9797</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>36138.637</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>19809.71496</v>
@@ -2168,40 +2229,45 @@
         <v>144108.99038</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>162949.88606</v>
+        <v>163004.77182</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>149525.46108</v>
+        <v>149525.46121</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>200942.97891</v>
+        <v>204281.50809</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>36210.66028</v>
+        <v>249311.47909</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>301203.3044</v>
+        <v>301303.88622</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>419574.70828</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>143696.12231</v>
+        <v>144495.48513</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>97267.01695</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>97605.55432000001</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>125789.096</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>2600.89474</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>751.7292699999999</v>
+        <v>751.72927</v>
       </c>
       <c r="E37" s="48" t="n">
         <v>2479.20194</v>
@@ -2213,34 +2279,39 @@
         <v>1056.73779</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>1068.77771</v>
+        <v>1070.28701</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>1975.1215</v>
+        <v>1980.71385</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>1888.96535</v>
+        <v>1889.06821</v>
       </c>
       <c r="K37" s="48" t="n">
         <v>1683.74332</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>1380.75213</v>
+        <v>1412.77602</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>1802.17676</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>1804.19009</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>1141.41</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>876.74001</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>785.9003600000001</v>
+        <v>785.90036</v>
       </c>
       <c r="E38" s="48" t="n">
         <v>342.66005</v>
@@ -2249,16 +2320,16 @@
         <v>1990.44725</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>888.86011</v>
+        <v>888.8601100000001</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>526.1723799999999</v>
+        <v>859.67238</v>
       </c>
       <c r="I38" s="48" t="n">
         <v>4841.00783</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>4326.728369999999</v>
+        <v>4326.72837</v>
       </c>
       <c r="K38" s="48" t="n">
         <v>3057.93414</v>
@@ -2267,13 +2338,18 @@
         <v>1039.93096</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>2073.47339</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>2080.50308</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>4604.122</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>4.282010000000001</v>
@@ -2282,7 +2358,7 @@
         <v>0.70334</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>5.171200000000001</v>
+        <v>5.1712</v>
       </c>
       <c r="F39" s="48" t="n">
         <v>133.71258</v>
@@ -2308,11 +2384,16 @@
       <c r="M39" s="48" t="n">
         <v>37.12734</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>82.732</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>12763.5104</v>
@@ -2324,34 +2405,39 @@
         <v>12282.31319</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>8486.138709999999</v>
+        <v>8541.02447</v>
       </c>
       <c r="G40" s="48" t="n">
         <v>11274.14849</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>16753.09647</v>
+        <v>16836.53038</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>17554.71854</v>
+        <v>31941.93767</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>42077.02422</v>
+        <v>42077.21447</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>54285.88579</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>125529.68166</v>
+        <v>126296.96117</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>73225.99027999998</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>73447.40582000001</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>105459.376</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>13.89927</v>
@@ -2372,7 +2458,7 @@
         <v>11.70808</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>0.66113</v>
+        <v>2.69645</v>
       </c>
       <c r="J41" s="48" t="n">
         <v>1.78542</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>185.745</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>1.838</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0.9986900000000001</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>0.00204</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>3549.38984</v>
@@ -2444,31 +2540,36 @@
         <v>151610.4706</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>136249.51155</v>
+        <v>136249.51168</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>182530.72897</v>
+        <v>185450.81494</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>11265.04765</v>
+        <v>209971.01966</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>252792.53338</v>
+        <v>252892.82209</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>360500.68618</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>15569.57344</v>
+        <v>15569.63286</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>19942.50214</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>20050.58095</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>14499.618</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>16293.89502</v>
@@ -2480,34 +2581,39 @@
         <v>19211.4572</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>29269.23852</v>
+        <v>29269.24377</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>23548.31429</v>
+        <v>23559.68405</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>32731.82158</v>
+        <v>32770.99559999999</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>38386.4238</v>
+        <v>47805.25347</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>43899.17699</v>
+        <v>43995.1197</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>55372.29205</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>92084.77633000001</v>
+        <v>92135.44948000001</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>83553.80618000001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>84071.35545</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>67108.91899999999</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>14556.9517</v>
@@ -2519,34 +2625,39 @@
         <v>15264.18261</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>28709.83625</v>
+        <v>28709.84149999999</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>20641.6458</v>
+        <v>20653.01556</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>29553.94393</v>
+        <v>29593.11795</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>33641.16901999999</v>
+        <v>43059.99869</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>38243.85834000001</v>
+        <v>38339.80104999999</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>54532.22092</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>91093.55197</v>
+        <v>91144.22511999999</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>83069.10233999998</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>83586.65161</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>66137.939</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>1736.94332</v>
@@ -2570,22 +2681,27 @@
         <v>4745.254779999999</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>5655.31865</v>
+        <v>5655.318650000001</v>
       </c>
       <c r="K46" s="48" t="n">
         <v>840.07113</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>991.2243599999998</v>
+        <v>991.22436</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>484.70384</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>484.7038400000001</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>970.98</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>-29441.383</v>
@@ -2597,73 +2713,83 @@
         <v>13079.19886</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>48953.59226</v>
+        <v>49316.68944</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>75882.08872</v>
+        <v>76000.83356999999</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>25368.19085</v>
+        <v>25245.24585</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-103538.4237</v>
+        <v>-2311.616649999999</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-44574.24725999999</v>
+        <v>-45882.92636</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>39614.07390000001</v>
+        <v>39614.0739</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-100582.70958</v>
+        <v>-101738.58941</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>41965.38705</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>39315.28145000002</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-202320.787</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>5685.4981</v>
+        <v>5685.498100000001</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>7964.263790000001</v>
+        <v>7964.263789999999</v>
       </c>
       <c r="E48" s="47" t="n">
         <v>11187.1445</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>25389.54797</v>
+        <v>25390.79249</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>17543.98908</v>
+        <v>17561.34759</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>22439.33512</v>
+        <v>22819.33187</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>26337.21031</v>
+        <v>28359.15434</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>28370.06969</v>
+        <v>28443.45134</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>36785.67524</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>32214.39589</v>
+        <v>32710.61528</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>38977.70839</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>39386.22203</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>70843.822</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>167.51071</v>
@@ -2681,13 +2807,13 @@
         <v>56.77608</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>290.6491600000001</v>
+        <v>597.28085</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>148.3262</v>
+        <v>149.33693</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>146.05598</v>
+        <v>169.26846</v>
       </c>
       <c r="K49" s="48" t="n">
         <v>31.91687</v>
@@ -2698,11 +2824,16 @@
       <c r="M49" s="48" t="n">
         <v>10281.22516</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>1493.907</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>5517.987389999999</v>
@@ -2714,34 +2845,39 @@
         <v>11099.19337</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>24936.21005</v>
+        <v>24937.45457000001</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>17487.213</v>
+        <v>17504.57151</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>22148.68596</v>
+        <v>22222.05102</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>26188.88411</v>
+        <v>28209.81741</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>28224.01371</v>
+        <v>28274.18288</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>36753.75837</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>31727.69616</v>
+        <v>32223.91555000001</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>28696.48323</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>29104.99687000001</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>69349.91499999999</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>16787.64231</v>
@@ -2753,34 +2889,39 @@
         <v>67534.68078</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>35617.3765</v>
+        <v>35617.38335</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>23665.49259</v>
+        <v>23668.49867</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>41502.21312000001</v>
+        <v>41716.18803</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>24046.74754</v>
+        <v>26983.61311</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>52703.83086000001</v>
+        <v>53187.87935</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>43672.65555</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>77899.4835</v>
+        <v>78143.82715000001</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>46374.09834</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>47382.28139</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>49352.45</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>2093.5041</v>
@@ -2801,7 +2942,7 @@
         <v>1771.81044</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>4896.851379999999</v>
+        <v>4898.04834</v>
       </c>
       <c r="J52" s="48" t="n">
         <v>1316.85142</v>
@@ -2815,11 +2956,16 @@
       <c r="M52" s="48" t="n">
         <v>11156.25642</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>991.649</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>2768.99844</v>
@@ -2828,7 +2974,7 @@
         <v>1813.97735</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>3046.948789999999</v>
+        <v>3046.94879</v>
       </c>
       <c r="F53" s="48" t="n">
         <v>1813.80493</v>
@@ -2837,10 +2983,10 @@
         <v>3062.77526</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>815.4486200000001</v>
+        <v>815.44862</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>1423.06443</v>
+        <v>1424.15949</v>
       </c>
       <c r="J53" s="48" t="n">
         <v>918.2848399999999</v>
@@ -2852,13 +2998,18 @@
         <v>2397.85547</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>1622.57114</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>1686.55311</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>2425.005</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>11925.13977</v>
@@ -2870,37 +3021,42 @@
         <v>61049.35447</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>30139.55757</v>
+        <v>30139.56442</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>17482.62106</v>
+        <v>17485.62714</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>38914.95406</v>
+        <v>39128.92897</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>17726.83173</v>
+        <v>20661.40528</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>50468.6946</v>
+        <v>50952.74309</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>35838.64754999999</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>74181.52213000001</v>
+        <v>74425.86578000001</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>33595.27078</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>34539.47186</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>45935.796</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>-40543.52720999999</v>
+        <v>-40543.52721</v>
       </c>
       <c r="D55" s="47" t="n">
         <v>-27639.20213</v>
@@ -2909,34 +3065,39 @@
         <v>-43268.33742</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>38725.76373000001</v>
+        <v>39090.09858</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>69760.58521</v>
+        <v>69893.68249000001</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>6305.31284999999</v>
+        <v>6348.389689999995</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-101247.96093</v>
+        <v>-936.0754199999906</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-68908.00843</v>
+        <v>-70627.35436999999</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>32727.09358999999</v>
+        <v>32727.09359</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-146267.79719</v>
+        <v>-147171.80128</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>34568.99709999999</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>31319.22209</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>-180829.415</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>9484.216709999999</v>
@@ -2948,16 +3109,16 @@
         <v>15805.73829</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>25091.00365</v>
+        <v>25168.39513</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>25367.399</v>
+        <v>25367.5831</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>28014.2286</v>
+        <v>28730.77334</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>27381.38517</v>
+        <v>36260.98488</v>
       </c>
       <c r="J56" s="47" t="n">
         <v>36256.7845</v>
@@ -2966,16 +3127,21 @@
         <v>51779.19964</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>50813.21333</v>
+        <v>51604.42053</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>91309.50214</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>92368.93884999999</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>51020.155</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>-50027.74392</v>
@@ -2987,31 +3153,34 @@
         <v>-59074.07571</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>13634.76008</v>
+        <v>13921.70345</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>44393.18621</v>
+        <v>44526.09939</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-21708.91575</v>
+        <v>-22382.38365</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-128629.3461</v>
+        <v>-37197.0603</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-105164.79293</v>
+        <v>-106884.13887</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>-19052.10604999999</v>
+        <v>-19052.10605000001</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-197081.01052</v>
+        <v>-198776.22181</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-56740.50503999999</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-61049.71675999999</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-231849.57</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>4701</v>
@@ -3041,31 +3213,34 @@
         <v>4978</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>4910</v>
+        <v>4915</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>4771</v>
+        <v>4781</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>4675</v>
+        <v>4689</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>4654</v>
+        <v>4691</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>4704</v>
+        <v>4716</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>4912</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>4948</v>
+        <v>5110</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>5100</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>5427</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>5414</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>